--- a/Task tracker.xlsx
+++ b/Task tracker.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="588" yWindow="564" windowWidth="15996" windowHeight="5244"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Task</t>
   </si>
@@ -29,20 +32,36 @@
   </si>
   <si>
     <t>Project setup</t>
+  </si>
+  <si>
+    <t>Assign Date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>no delay</t>
+  </si>
+  <si>
+    <t>How to install the Django and its command lines:- first you should install the python then you should install the django environment first make directory $mkdir django then goto the django&gt; python -m venv myvenv the activate command django&gt;myenv\Scripts\activate  then django&gt;python -m pip install Django  then make your first project django&gt;django-admin.exe startproject project_name then do changes in setting.py files like time installed apps etc. then make the app inside your project like  django&gt;project_name&gt;python manage.py startapp app_name  then command for run the server is &gt;python manage.py runserver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -52,7 +71,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -62,35 +81,40 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -280,29 +304,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.0"/>
-    <col customWidth="1" min="5" max="5" width="43.14"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="67.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -317,12 +349,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3">
+        <v>44161</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44162</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>